--- a/kl-main/src/main/resources/static/Temp/重大危险源信息导入模版.xlsx
+++ b/kl-main/src/main/resources/static/Temp/重大危险源信息导入模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>危险源名称</t>
   </si>
@@ -138,6 +138,10 @@
   </si>
   <si>
     <t>单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -197,13 +201,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -500,7 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -519,22 +523,22 @@
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -592,54 +596,169 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
     <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>20</v>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -649,107 +768,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/kl-main/src/main/resources/static/Temp/重大危险源信息导入模版.xlsx
+++ b/kl-main/src/main/resources/static/Temp/重大危险源信息导入模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
-    <t>危险源名称</t>
-  </si>
-  <si>
     <t>企业名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -36,112 +33,119 @@
     <t>R值</t>
   </si>
   <si>
+    <t>备案编号</t>
+  </si>
+  <si>
+    <t>经度</t>
+  </si>
+  <si>
+    <t>纬度</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>重大危险源信息录入模板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装置设施名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周边环境名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际距离（米）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准要求（米）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与标准符合性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重大危险源名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装置设施周围环境信息录入模板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周边环境说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与规定符合性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法律保护区信息录入模版</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>危险源相关化学品信息录入模板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学品名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计储量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>危险源等级</t>
-  </si>
-  <si>
-    <t>备案编号</t>
-  </si>
-  <si>
-    <t>经度</t>
-  </si>
-  <si>
-    <t>纬度</t>
-  </si>
-  <si>
-    <t>状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>可能引发事故死亡人数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>厂区边界外500米范围人数估值</t>
-  </si>
-  <si>
-    <t>重大危险源信息录入模板</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登记日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>装置设施名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>周边环境名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际距离（米）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准要求（米）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与标准符合性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>重大危险源名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>装置设施周围环境信息录入模板</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>保护区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>周边环境说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与规定符合性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法律保护区信息录入模版</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>危险源相关化学品信息录入模板</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>化学品名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计储量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -504,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -515,13 +519,14 @@
     <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="13.625" customWidth="1"/>
     <col min="6" max="6" width="4.875" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
     <col min="14" max="14" width="24.75" customWidth="1"/>
     <col min="15" max="15" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -539,49 +544,49 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -599,7 +604,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -614,7 +619,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
@@ -626,28 +631,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -676,7 +681,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
@@ -686,22 +691,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -729,7 +734,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -740,25 +745,25 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/kl-main/src/main/resources/static/Temp/重大危险源信息导入模版.xlsx
+++ b/kl-main/src/main/resources/static/Temp/重大危险源信息导入模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -202,16 +202,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -508,84 +509,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.75" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="6" max="6" width="4.875" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="14" max="14" width="24.75" customWidth="1"/>
-    <col min="15" max="15" width="30.625" customWidth="1"/>
+    <col min="1" max="1" width="7.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="4.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
+    <col min="8" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="24.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="30.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -604,54 +607,55 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -669,43 +673,45 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -722,47 +728,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
